--- a/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
+++ b/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,6 +144,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,14 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,30 +199,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,32 +236,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,37 +268,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +591,33 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -630,15 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,15 +684,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -697,148 +697,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
+++ b/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
@@ -61,10 +61,10 @@
     <t>Harus Memilih dari Daftar (Dropdown)</t>
   </si>
   <si>
-    <t>Daftar Pilihan</t>
-  </si>
-  <si>
-    <t>Milik Sendiri / Kemendikbud</t>
+    <t>Daftar Status Tanah</t>
+  </si>
+  <si>
+    <t>Milik Sendiri/ Kemendikbud</t>
   </si>
   <si>
     <t>Milik Pemda</t>
@@ -73,7 +73,7 @@
     <t>Pinjam Pakai</t>
   </si>
   <si>
-    <t>Daftar Pilihan 2</t>
+    <t>Daftar Sertifikat Tanah / IMB</t>
   </si>
   <si>
     <t>Asli</t>
@@ -85,13 +85,13 @@
     <t>Tidak Ada</t>
   </si>
   <si>
-    <t>Daftar Pilihan 3</t>
+    <t>Daftar Status Bangunan</t>
   </si>
   <si>
     <t>Sewa Kontrak</t>
   </si>
   <si>
-    <t>Daftar Pilihan 4</t>
+    <t>Daftar Kondisi</t>
   </si>
   <si>
     <t>Baik</t>
@@ -103,7 +103,7 @@
     <t>Rusak Berat</t>
   </si>
   <si>
-    <t>Daftar Pilihan 5</t>
+    <t>Daftar Status Pemerolehan</t>
   </si>
   <si>
     <t>Hibah</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,16 +144,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,115 +243,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +321,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,31 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,121 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,33 +591,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +634,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,26 +692,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,140 +706,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,6 +850,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1220,10 +1223,10 @@
     <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="9" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7777777777778" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="9" width="16.3333333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.4444444444444" style="4" customWidth="1"/>
     <col min="12" max="14" width="9" style="1"/>
     <col min="15" max="15" width="9.55555555555556" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
@@ -1231,79 +1234,95 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A2" s="6"/>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="A3" s="8"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9"/>
@@ -1315,24 +1334,32 @@
       <c r="A11"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:1">
-      <c r="A14" s="15"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.15" spans="2:3">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.15" spans="2:11">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" ht="15.15" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1352,8 +1379,8 @@
       </c>
     </row>
     <row r="20" ht="15.15"/>
-    <row r="21" ht="15.15" spans="1:1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1374,7 +1401,7 @@
     </row>
     <row r="25" ht="15.15"/>
     <row r="26" ht="15.15" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1394,8 +1421,8 @@
       </c>
     </row>
     <row r="30" ht="15.15"/>
-    <row r="31" ht="15.15" spans="1:1">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1415,8 +1442,8 @@
       </c>
     </row>
     <row r="35" ht="15.15"/>
-    <row r="36" ht="15.15" spans="1:1">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1446,20 +1473,22 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="E1:E2;F1:F2;G1:G2;H1:H2;I1:I2;J1:J2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="I3:I1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="I3:I1048576">
       <formula1>$A$32:$A$34</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="I1:I2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="E3:E1048576">
       <formula1>$A$17:$A$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="F3:F1048576;H3:H1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="F1:F2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="F3:F1048576 H3:H1048576">
       <formula1>$A$22:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="G3:G1048576">
       <formula1>$A$27:$A$29</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="H1:H2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="J3:J1048576">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>

--- a/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
+++ b/PangkalanData/public/Template/Template Inventarisasi Tanah dan Bangunan.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>TEMPLATE IMPORT DATA INVENTARISASI TANAH DAN BANGUNAN</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Alamat</t>
   </si>
   <si>
     <t>Status Tanah</t>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,52 +141,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,17 +202,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,16 +240,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +265,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +318,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,25 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,127 +474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,8 +610,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,44 +666,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,15 +694,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,130 +712,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1223,18 +1220,17 @@
     <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.4444444444444" style="4" customWidth="1"/>
-    <col min="5" max="9" width="16.3333333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.7777777777778" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.4444444444444" style="4" customWidth="1"/>
-    <col min="12" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="4" max="8" width="16.3333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.7777777777778" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.4444444444444" style="4" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1238,7 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1260,27 +1256,23 @@
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:11">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:10">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.15" spans="1:11">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.15" spans="1:10">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
@@ -1291,11 +1283,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1306,19 +1297,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
     </row>
     <row r="5" ht="15.15" spans="1:1">
       <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:1">
@@ -1335,18 +1325,18 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:1">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.15" spans="2:11">
+    <row r="15" s="1" customFormat="1" ht="15.15" spans="2:10">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1356,109 +1346,108 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
     </row>
     <row r="16" ht="15.15" spans="1:1">
       <c r="A16" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15"/>
+    <row r="21" ht="15.15" spans="1:1">
+      <c r="A21" s="17" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="15.15"/>
-    <row r="21" spans="1:1">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="15.15"/>
     <row r="26" ht="15.15" spans="1:1">
       <c r="A26" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15"/>
+    <row r="31" ht="15.15" spans="1:1">
+      <c r="A31" s="17" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15"/>
-    <row r="31" spans="1:1">
-      <c r="A31" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15"/>
+    <row r="36" ht="15.15" spans="1:1">
+      <c r="A36" s="17" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="35" ht="15.15"/>
-    <row r="36" spans="1:1">
-      <c r="A36" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
@@ -1471,25 +1460,22 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="I3:I1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="H3:H1048576">
       <formula1>$A$32:$A$34</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="I1:I2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D3:D1048576">
       <formula1>$A$17:$A$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="F1:F2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="F3:F1048576 H3:H1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="E1:E2 G1:G2 H1:H2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="E3:E1048576 G3:G1048576">
       <formula1>$A$22:$A$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="F3:F1048576">
       <formula1>$A$27:$A$29</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="H1:H2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="J3:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="I3:I1048576">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>
   </dataValidations>
